--- a/risk_of_bias/rob_raw_data.xlsx
+++ b/risk_of_bias/rob_raw_data.xlsx
@@ -5,9 +5,7 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$L$265</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
@@ -1163,7 +1161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1201,7 +1199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +1237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1315,7 +1313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1353,7 +1351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,7 +1389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1467,7 +1465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,7 +1503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1581,7 +1579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1619,7 +1617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1657,7 +1655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1695,7 +1693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1733,7 +1731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1771,7 +1769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1809,7 +1807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1847,7 +1845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1923,7 +1921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,7 +1959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1999,7 +1997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -2037,7 +2035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -2113,7 +2111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -2151,7 +2149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -2189,7 +2187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -2227,7 +2225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -2265,7 +2263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -2303,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -2379,7 +2377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -2417,7 +2415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -2455,7 +2453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2493,7 +2491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" hidden="1">
+    <row r="37">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -2531,7 +2529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,7 +2567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2607,7 +2605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" hidden="1">
+    <row r="40">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
@@ -2645,7 +2643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" hidden="1">
+    <row r="41">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
@@ -2721,7 +2719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" hidden="1">
+    <row r="43">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -2835,7 +2833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" hidden="1">
+    <row r="46">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
@@ -2873,7 +2871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" hidden="1">
+    <row r="47">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
@@ -2911,7 +2909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" hidden="1">
+    <row r="48">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -2949,7 +2947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" hidden="1">
+    <row r="49">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -2987,7 +2985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" hidden="1">
+    <row r="50">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
@@ -3063,7 +3061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" hidden="1">
+    <row r="52">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -3139,7 +3137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" hidden="1">
+    <row r="54">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -3177,7 +3175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" hidden="1">
+    <row r="55">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
@@ -3215,7 +3213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" hidden="1">
+    <row r="56">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
@@ -3253,7 +3251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" hidden="1">
+    <row r="57">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
@@ -3291,7 +3289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" hidden="1">
+    <row r="58">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
@@ -3329,7 +3327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" hidden="1">
+    <row r="59">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
@@ -3367,7 +3365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" hidden="1">
+    <row r="60">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -3405,7 +3403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" hidden="1">
+    <row r="61">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -3443,7 +3441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" hidden="1">
+    <row r="62">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" hidden="1">
+    <row r="63">
       <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
@@ -3519,7 +3517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" hidden="1">
+    <row r="64">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -3557,7 +3555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" hidden="1">
+    <row r="65">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
@@ -3595,7 +3593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" hidden="1">
+    <row r="66">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -3633,7 +3631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" hidden="1">
+    <row r="67">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" hidden="1">
+    <row r="68">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -3709,7 +3707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" hidden="1">
+    <row r="69">
       <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
@@ -3747,7 +3745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" hidden="1">
+    <row r="70">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -3785,7 +3783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" hidden="1">
+    <row r="71">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -3823,7 +3821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" hidden="1">
+    <row r="72">
       <c r="A72" s="1" t="s">
         <v>85</v>
       </c>
@@ -3861,7 +3859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" hidden="1">
+    <row r="73">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -3899,7 +3897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" hidden="1">
+    <row r="74">
       <c r="A74" s="1" t="s">
         <v>87</v>
       </c>
@@ -3937,7 +3935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" hidden="1">
+    <row r="75">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
@@ -3975,7 +3973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" hidden="1">
+    <row r="76">
       <c r="A76" s="1" t="s">
         <v>89</v>
       </c>
@@ -4013,7 +4011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" hidden="1">
+    <row r="77">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -4051,7 +4049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" hidden="1">
+    <row r="78">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -4089,7 +4087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" hidden="1">
+    <row r="79">
       <c r="A79" s="1" t="s">
         <v>92</v>
       </c>
@@ -4127,7 +4125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" hidden="1">
+    <row r="80">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -4203,7 +4201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" hidden="1">
+    <row r="82">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -4241,7 +4239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" hidden="1">
+    <row r="83">
       <c r="A83" s="1" t="s">
         <v>96</v>
       </c>
@@ -4355,7 +4353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" hidden="1">
+    <row r="86">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -4393,7 +4391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" hidden="1">
+    <row r="87">
       <c r="A87" s="1" t="s">
         <v>100</v>
       </c>
@@ -4431,7 +4429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" hidden="1">
+    <row r="88">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -4469,7 +4467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" hidden="1">
+    <row r="89">
       <c r="A89" s="1" t="s">
         <v>102</v>
       </c>
@@ -4507,7 +4505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" hidden="1">
+    <row r="90">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -4545,7 +4543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" hidden="1">
+    <row r="91">
       <c r="A91" s="1" t="s">
         <v>104</v>
       </c>
@@ -4583,7 +4581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" hidden="1">
+    <row r="92">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -4621,7 +4619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" hidden="1">
+    <row r="93">
       <c r="A93" s="1" t="s">
         <v>106</v>
       </c>
@@ -4697,7 +4695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" hidden="1">
+    <row r="95">
       <c r="A95" s="1" t="s">
         <v>108</v>
       </c>
@@ -4735,7 +4733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" hidden="1">
+    <row r="96">
       <c r="A96" s="1" t="s">
         <v>109</v>
       </c>
@@ -4773,7 +4771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" hidden="1">
+    <row r="97">
       <c r="A97" s="1" t="s">
         <v>110</v>
       </c>
@@ -4811,7 +4809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" hidden="1">
+    <row r="98">
       <c r="A98" s="1" t="s">
         <v>111</v>
       </c>
@@ -4849,7 +4847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" hidden="1">
+    <row r="99">
       <c r="A99" s="1" t="s">
         <v>112</v>
       </c>
@@ -4887,7 +4885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" hidden="1">
+    <row r="100">
       <c r="A100" s="1" t="s">
         <v>113</v>
       </c>
@@ -4963,7 +4961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" hidden="1">
+    <row r="102">
       <c r="A102" s="1" t="s">
         <v>115</v>
       </c>
@@ -5039,7 +5037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" hidden="1">
+    <row r="104">
       <c r="A104" s="1" t="s">
         <v>117</v>
       </c>
@@ -5077,7 +5075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" hidden="1">
+    <row r="105">
       <c r="A105" s="1" t="s">
         <v>118</v>
       </c>
@@ -5115,7 +5113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" hidden="1">
+    <row r="106">
       <c r="A106" s="1" t="s">
         <v>119</v>
       </c>
@@ -5153,7 +5151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" hidden="1">
+    <row r="107">
       <c r="A107" s="1" t="s">
         <v>120</v>
       </c>
@@ -5191,7 +5189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" hidden="1">
+    <row r="108">
       <c r="A108" s="1" t="s">
         <v>121</v>
       </c>
@@ -5229,7 +5227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" hidden="1">
+    <row r="109">
       <c r="A109" s="1" t="s">
         <v>122</v>
       </c>
@@ -5267,7 +5265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" hidden="1">
+    <row r="110">
       <c r="A110" s="1" t="s">
         <v>123</v>
       </c>
@@ -5305,7 +5303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" hidden="1">
+    <row r="111">
       <c r="A111" s="1" t="s">
         <v>124</v>
       </c>
@@ -5343,7 +5341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" hidden="1">
+    <row r="112">
       <c r="A112" s="1" t="s">
         <v>125</v>
       </c>
@@ -5419,7 +5417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" hidden="1">
+    <row r="114">
       <c r="A114" s="1" t="s">
         <v>127</v>
       </c>
@@ -5457,7 +5455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" hidden="1">
+    <row r="115">
       <c r="A115" s="1" t="s">
         <v>128</v>
       </c>
@@ -5495,7 +5493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" hidden="1">
+    <row r="116">
       <c r="A116" s="1" t="s">
         <v>129</v>
       </c>
@@ -5533,7 +5531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" hidden="1">
+    <row r="117">
       <c r="A117" s="1" t="s">
         <v>130</v>
       </c>
@@ -5609,7 +5607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" hidden="1">
+    <row r="119">
       <c r="A119" s="1" t="s">
         <v>132</v>
       </c>
@@ -5647,7 +5645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" hidden="1">
+    <row r="120">
       <c r="A120" s="1" t="s">
         <v>133</v>
       </c>
@@ -5685,7 +5683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" hidden="1">
+    <row r="121">
       <c r="A121" s="1" t="s">
         <v>134</v>
       </c>
@@ -5761,7 +5759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" hidden="1">
+    <row r="123">
       <c r="A123" s="1" t="s">
         <v>136</v>
       </c>
@@ -5837,7 +5835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" hidden="1">
+    <row r="125">
       <c r="A125" s="1" t="s">
         <v>138</v>
       </c>
@@ -5951,7 +5949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" hidden="1">
+    <row r="128">
       <c r="A128" s="1" t="s">
         <v>141</v>
       </c>
@@ -5989,7 +5987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" hidden="1">
+    <row r="129">
       <c r="A129" s="1" t="s">
         <v>142</v>
       </c>
@@ -6027,7 +6025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" hidden="1">
+    <row r="130">
       <c r="A130" s="1" t="s">
         <v>143</v>
       </c>
@@ -6065,7 +6063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" hidden="1">
+    <row r="131">
       <c r="A131" s="1" t="s">
         <v>144</v>
       </c>
@@ -6103,7 +6101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" hidden="1">
+    <row r="132">
       <c r="A132" s="1" t="s">
         <v>145</v>
       </c>
@@ -6141,7 +6139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" hidden="1">
+    <row r="133">
       <c r="A133" s="1" t="s">
         <v>146</v>
       </c>
@@ -6179,7 +6177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" hidden="1">
+    <row r="134">
       <c r="A134" s="1" t="s">
         <v>147</v>
       </c>
@@ -6217,7 +6215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" hidden="1">
+    <row r="135">
       <c r="A135" s="1" t="s">
         <v>148</v>
       </c>
@@ -6255,7 +6253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" hidden="1">
+    <row r="136">
       <c r="A136" s="1" t="s">
         <v>149</v>
       </c>
@@ -6293,7 +6291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" hidden="1">
+    <row r="137">
       <c r="A137" s="1" t="s">
         <v>150</v>
       </c>
@@ -6331,7 +6329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" hidden="1">
+    <row r="138">
       <c r="A138" s="1" t="s">
         <v>151</v>
       </c>
@@ -6369,7 +6367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" hidden="1">
+    <row r="139">
       <c r="A139" s="1" t="s">
         <v>152</v>
       </c>
@@ -6407,7 +6405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" hidden="1">
+    <row r="140">
       <c r="A140" s="1" t="s">
         <v>153</v>
       </c>
@@ -6483,7 +6481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" hidden="1">
+    <row r="142">
       <c r="A142" s="1" t="s">
         <v>155</v>
       </c>
@@ -6521,7 +6519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" hidden="1">
+    <row r="143">
       <c r="A143" s="1" t="s">
         <v>156</v>
       </c>
@@ -6559,7 +6557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" hidden="1">
+    <row r="144">
       <c r="A144" s="1" t="s">
         <v>157</v>
       </c>
@@ -6597,7 +6595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" hidden="1">
+    <row r="145">
       <c r="A145" s="1" t="s">
         <v>158</v>
       </c>
@@ -6635,7 +6633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" hidden="1">
+    <row r="146">
       <c r="A146" s="1" t="s">
         <v>159</v>
       </c>
@@ -6673,7 +6671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" hidden="1">
+    <row r="147">
       <c r="A147" s="1" t="s">
         <v>160</v>
       </c>
@@ -6749,7 +6747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" hidden="1">
+    <row r="149">
       <c r="A149" s="1" t="s">
         <v>162</v>
       </c>
@@ -6825,7 +6823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" hidden="1">
+    <row r="151">
       <c r="A151" s="1" t="s">
         <v>164</v>
       </c>
@@ -6863,7 +6861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" hidden="1">
+    <row r="152">
       <c r="A152" s="1" t="s">
         <v>165</v>
       </c>
@@ -6901,7 +6899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" hidden="1">
+    <row r="153">
       <c r="A153" s="1" t="s">
         <v>166</v>
       </c>
@@ -6939,7 +6937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" hidden="1">
+    <row r="154">
       <c r="A154" s="1" t="s">
         <v>167</v>
       </c>
@@ -6977,7 +6975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" hidden="1">
+    <row r="155">
       <c r="A155" s="1" t="s">
         <v>168</v>
       </c>
@@ -7015,7 +7013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" hidden="1">
+    <row r="156">
       <c r="A156" s="1" t="s">
         <v>169</v>
       </c>
@@ -7053,7 +7051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" hidden="1">
+    <row r="157">
       <c r="A157" s="1" t="s">
         <v>170</v>
       </c>
@@ -7091,7 +7089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" hidden="1">
+    <row r="158">
       <c r="A158" s="1" t="s">
         <v>171</v>
       </c>
@@ -7129,7 +7127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" hidden="1">
+    <row r="159">
       <c r="A159" s="1" t="s">
         <v>172</v>
       </c>
@@ -7167,7 +7165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" hidden="1">
+    <row r="160">
       <c r="A160" s="1" t="s">
         <v>173</v>
       </c>
@@ -7205,7 +7203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" hidden="1">
+    <row r="161">
       <c r="A161" s="1" t="s">
         <v>174</v>
       </c>
@@ -7243,7 +7241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" hidden="1">
+    <row r="162">
       <c r="A162" s="1" t="s">
         <v>175</v>
       </c>
@@ -7281,7 +7279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" hidden="1">
+    <row r="163">
       <c r="A163" s="1" t="s">
         <v>176</v>
       </c>
@@ -7319,7 +7317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" hidden="1">
+    <row r="164">
       <c r="A164" s="1" t="s">
         <v>177</v>
       </c>
@@ -7357,7 +7355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" hidden="1">
+    <row r="165">
       <c r="A165" s="1" t="s">
         <v>178</v>
       </c>
@@ -7395,7 +7393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" hidden="1">
+    <row r="166">
       <c r="A166" s="1" t="s">
         <v>179</v>
       </c>
@@ -7433,7 +7431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" hidden="1">
+    <row r="167">
       <c r="A167" s="1" t="s">
         <v>180</v>
       </c>
@@ -7471,7 +7469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" hidden="1">
+    <row r="168">
       <c r="A168" s="1" t="s">
         <v>181</v>
       </c>
@@ -7585,7 +7583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" hidden="1">
+    <row r="171">
       <c r="A171" s="1" t="s">
         <v>184</v>
       </c>
@@ -7623,7 +7621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" hidden="1">
+    <row r="172">
       <c r="A172" s="1" t="s">
         <v>185</v>
       </c>
@@ -7661,7 +7659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" hidden="1">
+    <row r="173">
       <c r="A173" s="1" t="s">
         <v>186</v>
       </c>
@@ -7699,7 +7697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" hidden="1">
+    <row r="174">
       <c r="A174" s="1" t="s">
         <v>187</v>
       </c>
@@ -7775,7 +7773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" hidden="1">
+    <row r="176">
       <c r="A176" s="1" t="s">
         <v>189</v>
       </c>
@@ -7813,7 +7811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" hidden="1">
+    <row r="177">
       <c r="A177" s="1" t="s">
         <v>190</v>
       </c>
@@ -7851,7 +7849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" hidden="1">
+    <row r="178">
       <c r="A178" s="1" t="s">
         <v>191</v>
       </c>
@@ -7889,7 +7887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" hidden="1">
+    <row r="179">
       <c r="A179" s="1" t="s">
         <v>192</v>
       </c>
@@ -7927,7 +7925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" hidden="1">
+    <row r="180">
       <c r="A180" s="1" t="s">
         <v>193</v>
       </c>
@@ -7965,7 +7963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" hidden="1">
+    <row r="181">
       <c r="A181" s="1" t="s">
         <v>194</v>
       </c>
@@ -8003,7 +8001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" hidden="1">
+    <row r="182">
       <c r="A182" s="1" t="s">
         <v>195</v>
       </c>
@@ -8041,7 +8039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" hidden="1">
+    <row r="183">
       <c r="A183" s="1" t="s">
         <v>196</v>
       </c>
@@ -8079,7 +8077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" hidden="1">
+    <row r="184">
       <c r="A184" s="1" t="s">
         <v>197</v>
       </c>
@@ -8155,7 +8153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" hidden="1">
+    <row r="186">
       <c r="A186" s="1" t="s">
         <v>199</v>
       </c>
@@ -8193,7 +8191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" hidden="1">
+    <row r="187">
       <c r="A187" s="1" t="s">
         <v>200</v>
       </c>
@@ -8231,7 +8229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" hidden="1">
+    <row r="188">
       <c r="A188" s="1" t="s">
         <v>201</v>
       </c>
@@ -8269,7 +8267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" hidden="1">
+    <row r="189">
       <c r="A189" s="1" t="s">
         <v>202</v>
       </c>
@@ -8307,7 +8305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" hidden="1">
+    <row r="190">
       <c r="A190" s="1" t="s">
         <v>203</v>
       </c>
@@ -8345,7 +8343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" hidden="1">
+    <row r="191">
       <c r="A191" s="1" t="s">
         <v>204</v>
       </c>
@@ -8383,7 +8381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" hidden="1">
+    <row r="192">
       <c r="A192" s="1" t="s">
         <v>205</v>
       </c>
@@ -8421,7 +8419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" hidden="1">
+    <row r="193">
       <c r="A193" s="1" t="s">
         <v>206</v>
       </c>
@@ -8459,7 +8457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" hidden="1">
+    <row r="194">
       <c r="A194" s="1" t="s">
         <v>207</v>
       </c>
@@ -8497,7 +8495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" hidden="1">
+    <row r="195">
       <c r="A195" s="1" t="s">
         <v>208</v>
       </c>
@@ -8535,7 +8533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" hidden="1">
+    <row r="196">
       <c r="A196" s="1" t="s">
         <v>209</v>
       </c>
@@ -8573,7 +8571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" hidden="1">
+    <row r="197">
       <c r="A197" s="1" t="s">
         <v>210</v>
       </c>
@@ -8611,7 +8609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" hidden="1">
+    <row r="198">
       <c r="A198" s="1" t="s">
         <v>211</v>
       </c>
@@ -8649,7 +8647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" hidden="1">
+    <row r="199">
       <c r="A199" s="1" t="s">
         <v>212</v>
       </c>
@@ -8687,7 +8685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" hidden="1">
+    <row r="200">
       <c r="A200" s="1" t="s">
         <v>213</v>
       </c>
@@ -8725,7 +8723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" hidden="1">
+    <row r="201">
       <c r="A201" s="1" t="s">
         <v>214</v>
       </c>
@@ -8839,7 +8837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" hidden="1">
+    <row r="204">
       <c r="A204" s="1" t="s">
         <v>217</v>
       </c>
@@ -8915,7 +8913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" hidden="1">
+    <row r="206">
       <c r="A206" s="1" t="s">
         <v>219</v>
       </c>
@@ -8953,7 +8951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" hidden="1">
+    <row r="207">
       <c r="A207" s="1" t="s">
         <v>220</v>
       </c>
@@ -8991,7 +8989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" hidden="1">
+    <row r="208">
       <c r="A208" s="1" t="s">
         <v>221</v>
       </c>
@@ -9029,7 +9027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" hidden="1">
+    <row r="209">
       <c r="A209" s="1" t="s">
         <v>222</v>
       </c>
@@ -9067,7 +9065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" hidden="1">
+    <row r="210">
       <c r="A210" s="1" t="s">
         <v>223</v>
       </c>
@@ -9143,7 +9141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" hidden="1">
+    <row r="212">
       <c r="A212" s="1" t="s">
         <v>225</v>
       </c>
@@ -9181,7 +9179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" hidden="1">
+    <row r="213">
       <c r="A213" s="1" t="s">
         <v>226</v>
       </c>
@@ -9219,7 +9217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" hidden="1">
+    <row r="214">
       <c r="A214" s="1" t="s">
         <v>227</v>
       </c>
@@ -9257,7 +9255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" hidden="1">
+    <row r="215">
       <c r="A215" s="1" t="s">
         <v>228</v>
       </c>
@@ -9295,7 +9293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" hidden="1">
+    <row r="216">
       <c r="A216" s="1" t="s">
         <v>229</v>
       </c>
@@ -9333,7 +9331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" hidden="1">
+    <row r="217">
       <c r="A217" s="1" t="s">
         <v>230</v>
       </c>
@@ -9371,7 +9369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" hidden="1">
+    <row r="218">
       <c r="A218" s="1" t="s">
         <v>231</v>
       </c>
@@ -9409,7 +9407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" hidden="1">
+    <row r="219">
       <c r="A219" s="1" t="s">
         <v>232</v>
       </c>
@@ -9447,7 +9445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" hidden="1">
+    <row r="220">
       <c r="A220" s="1" t="s">
         <v>233</v>
       </c>
@@ -9485,7 +9483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" hidden="1">
+    <row r="221">
       <c r="A221" s="1" t="s">
         <v>234</v>
       </c>
@@ -9523,7 +9521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" hidden="1">
+    <row r="222">
       <c r="A222" s="1" t="s">
         <v>235</v>
       </c>
@@ -9561,7 +9559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" hidden="1">
+    <row r="223">
       <c r="A223" s="1" t="s">
         <v>236</v>
       </c>
@@ -9599,7 +9597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" hidden="1">
+    <row r="224">
       <c r="A224" s="1" t="s">
         <v>237</v>
       </c>
@@ -9637,7 +9635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" hidden="1">
+    <row r="225">
       <c r="A225" s="1" t="s">
         <v>238</v>
       </c>
@@ -9675,7 +9673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" hidden="1">
+    <row r="226">
       <c r="A226" s="1" t="s">
         <v>239</v>
       </c>
@@ -9751,7 +9749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" hidden="1">
+    <row r="228">
       <c r="A228" s="1" t="s">
         <v>241</v>
       </c>
@@ -9789,7 +9787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" hidden="1">
+    <row r="229">
       <c r="A229" s="1" t="s">
         <v>242</v>
       </c>
@@ -9827,7 +9825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" hidden="1">
+    <row r="230">
       <c r="A230" s="1" t="s">
         <v>243</v>
       </c>
@@ -9865,7 +9863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" hidden="1">
+    <row r="231">
       <c r="A231" s="1" t="s">
         <v>244</v>
       </c>
@@ -9903,7 +9901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" hidden="1">
+    <row r="232">
       <c r="A232" s="1" t="s">
         <v>245</v>
       </c>
@@ -9941,7 +9939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" hidden="1">
+    <row r="233">
       <c r="A233" s="1" t="s">
         <v>246</v>
       </c>
@@ -9979,7 +9977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" hidden="1">
+    <row r="234">
       <c r="A234" s="1" t="s">
         <v>247</v>
       </c>
@@ -10017,7 +10015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" hidden="1">
+    <row r="235">
       <c r="A235" s="1" t="s">
         <v>248</v>
       </c>
@@ -10055,7 +10053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" hidden="1">
+    <row r="236">
       <c r="A236" s="1" t="s">
         <v>249</v>
       </c>
@@ -10093,7 +10091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" hidden="1">
+    <row r="237">
       <c r="A237" s="1" t="s">
         <v>250</v>
       </c>
@@ -10131,7 +10129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" hidden="1">
+    <row r="238">
       <c r="A238" s="1" t="s">
         <v>251</v>
       </c>
@@ -10169,7 +10167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" hidden="1">
+    <row r="239">
       <c r="A239" s="1" t="s">
         <v>252</v>
       </c>
@@ -10207,7 +10205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" hidden="1">
+    <row r="240">
       <c r="A240" s="1" t="s">
         <v>253</v>
       </c>
@@ -10283,7 +10281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" hidden="1">
+    <row r="242">
       <c r="A242" s="1" t="s">
         <v>255</v>
       </c>
@@ -10321,7 +10319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" hidden="1">
+    <row r="243">
       <c r="A243" s="1" t="s">
         <v>256</v>
       </c>
@@ -10359,7 +10357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" hidden="1">
+    <row r="244">
       <c r="A244" s="1" t="s">
         <v>257</v>
       </c>
@@ -10397,7 +10395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" hidden="1">
+    <row r="245">
       <c r="A245" s="1" t="s">
         <v>258</v>
       </c>
@@ -10435,7 +10433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" hidden="1">
+    <row r="246">
       <c r="A246" s="1" t="s">
         <v>259</v>
       </c>
@@ -10473,7 +10471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" hidden="1">
+    <row r="247">
       <c r="A247" s="1" t="s">
         <v>260</v>
       </c>
@@ -10511,7 +10509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" hidden="1">
+    <row r="248">
       <c r="A248" s="1" t="s">
         <v>261</v>
       </c>
@@ -10549,7 +10547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" hidden="1">
+    <row r="249">
       <c r="A249" s="1" t="s">
         <v>262</v>
       </c>
@@ -10587,7 +10585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" hidden="1">
+    <row r="250">
       <c r="A250" s="1" t="s">
         <v>263</v>
       </c>
@@ -10739,7 +10737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" hidden="1">
+    <row r="254">
       <c r="A254" s="1" t="s">
         <v>267</v>
       </c>
@@ -10777,7 +10775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" hidden="1">
+    <row r="255">
       <c r="A255" s="1" t="s">
         <v>268</v>
       </c>
@@ -10815,7 +10813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" hidden="1">
+    <row r="256">
       <c r="A256" s="1" t="s">
         <v>269</v>
       </c>
@@ -10853,7 +10851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" hidden="1">
+    <row r="257">
       <c r="A257" s="1" t="s">
         <v>270</v>
       </c>
@@ -10891,7 +10889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" hidden="1">
+    <row r="258">
       <c r="A258" s="1" t="s">
         <v>271</v>
       </c>
@@ -10967,7 +10965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" hidden="1">
+    <row r="260">
       <c r="A260" s="1" t="s">
         <v>273</v>
       </c>
@@ -11005,7 +11003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" hidden="1">
+    <row r="261">
       <c r="A261" s="1" t="s">
         <v>274</v>
       </c>
@@ -11043,7 +11041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" hidden="1">
+    <row r="262">
       <c r="A262" s="1" t="s">
         <v>275</v>
       </c>
@@ -11081,7 +11079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" hidden="1">
+    <row r="263">
       <c r="A263" s="1" t="s">
         <v>276</v>
       </c>
@@ -11119,7 +11117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" hidden="1">
+    <row r="264">
       <c r="A264" s="1" t="s">
         <v>277</v>
       </c>
@@ -11157,7 +11155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" hidden="1">
+    <row r="265">
       <c r="A265" s="1" t="s">
         <v>278</v>
       </c>
@@ -11196,13 +11194,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$L$265">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="High"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="A1:L265">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
